--- a/AMZN.xlsx
+++ b/AMZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Library/CloudStorage/Dropbox/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F583FAFB-A968-9C47-9719-4E6F584493C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16233488-7B33-804F-9FF0-AA82B951E148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-820" yWindow="500" windowWidth="43740" windowHeight="24700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="43740" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1783,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:W21"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1839,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="2">
-        <v>168.64</v>
+        <v>173.54</v>
       </c>
       <c r="P7" s="2">
         <v>18.43</v>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="M9" s="5">
         <f>+M7*M8</f>
-        <v>1751727.9809142398</v>
+        <v>1802626.1492401399</v>
       </c>
       <c r="P9" s="5">
         <f>+P7*P8</f>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="M12" s="2">
         <f>+M9-M10+M11</f>
-        <v>1797351.9809142398</v>
+        <v>1848250.1492401399</v>
       </c>
       <c r="P12" s="2">
         <f>+P9-P10+P11</f>
@@ -2089,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D31B74-384C-A044-8517-616352A76775}">
   <dimension ref="A1:KB172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="T12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
@@ -9648,39 +9648,39 @@
       </c>
       <c r="BA63" s="34">
         <f>+Main!M7</f>
-        <v>168.64</v>
+        <v>173.54</v>
       </c>
       <c r="BB63" s="57">
         <f>+BA63</f>
-        <v>168.64</v>
+        <v>173.54</v>
       </c>
       <c r="BC63" s="57">
         <f t="shared" ref="BC63:BI63" si="163">+BB63</f>
-        <v>168.64</v>
+        <v>173.54</v>
       </c>
       <c r="BD63" s="57">
         <f t="shared" si="163"/>
-        <v>168.64</v>
+        <v>173.54</v>
       </c>
       <c r="BE63" s="57">
         <f t="shared" si="163"/>
-        <v>168.64</v>
+        <v>173.54</v>
       </c>
       <c r="BF63" s="57">
         <f t="shared" si="163"/>
-        <v>168.64</v>
+        <v>173.54</v>
       </c>
       <c r="BG63" s="63">
         <f t="shared" si="163"/>
-        <v>168.64</v>
+        <v>173.54</v>
       </c>
       <c r="BH63" s="57">
         <f t="shared" si="163"/>
-        <v>168.64</v>
+        <v>173.54</v>
       </c>
       <c r="BI63" s="58">
         <f t="shared" si="163"/>
-        <v>168.64</v>
+        <v>173.54</v>
       </c>
     </row>
     <row r="64" spans="2:61" s="6" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -9835,39 +9835,39 @@
       </c>
       <c r="BA64" s="40">
         <f>+BA62/BA63-1</f>
-        <v>-0.11682612986580765</v>
+        <v>-0.14176304333623269</v>
       </c>
       <c r="BB64" s="59">
         <f>+BB62/BB63-1</f>
-        <v>-0.26903352232217848</v>
+        <v>-0.28967277402565506</v>
       </c>
       <c r="BC64" s="59">
         <f t="shared" ref="BC64:BI64" si="166">+BC62/BC63-1</f>
-        <v>-0.32619519397298824</v>
+        <v>-0.34522045356462339</v>
       </c>
       <c r="BD64" s="59">
         <f t="shared" si="166"/>
-        <v>-0.37622358799721367</v>
+        <v>-0.39383626760314694</v>
       </c>
       <c r="BE64" s="59">
         <f t="shared" si="166"/>
-        <v>-0.4203444517786683</v>
+        <v>-0.43671135385475757</v>
       </c>
       <c r="BF64" s="59">
         <f t="shared" si="166"/>
-        <v>-0.45952155601094447</v>
+        <v>-0.47478227040270649</v>
       </c>
       <c r="BG64" s="64">
         <f t="shared" si="166"/>
-        <v>-0.49452209646956735</v>
+        <v>-0.50879455081611069</v>
       </c>
       <c r="BH64" s="59">
         <f t="shared" si="166"/>
-        <v>-0.5259637926254892</v>
+        <v>-0.5393484729074709</v>
       </c>
       <c r="BI64" s="60">
         <f t="shared" si="166"/>
-        <v>-0.55434926570774978</v>
+        <v>-0.56693246611129955</v>
       </c>
     </row>
     <row r="65" spans="2:59" s="6" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -10037,7 +10037,7 @@
       </c>
       <c r="BG67" s="45">
         <f>+BG66/BA63-1</f>
-        <v>-0.39366439963895639</v>
+        <v>-0.41078462806911142</v>
       </c>
     </row>
     <row r="68" spans="2:59" s="5" customFormat="1" x14ac:dyDescent="0.2">
